--- a/mobile-automation-framework/src/main/resources/excel/App_TSOFT.xlsx
+++ b/mobile-automation-framework/src/main/resources/excel/App_TSOFT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07787FF1-B2AA-4705-98A5-A34A7CF2F58D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBCA98B-F74D-43DD-A03C-E00528F96BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>TC</t>
   </si>
@@ -44,16 +44,10 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>tvela</t>
-  </si>
-  <si>
-    <t>Erika Hernandez</t>
-  </si>
-  <si>
-    <t>erikita2020</t>
-  </si>
-  <si>
-    <t>ephz</t>
+    <t>Humberto Ugarte</t>
+  </si>
+  <si>
+    <t>hugarte</t>
   </si>
 </sst>
 </file>
@@ -395,13 +389,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
@@ -441,16 +435,16 @@
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
+      <c r="D2" s="3">
+        <v>159753</v>
+      </c>
+      <c r="E2" s="3">
+        <v>159753</v>
       </c>
       <c r="F2"/>
     </row>
@@ -536,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,10 +568,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>12345</v>
+        <v>159753</v>
       </c>
       <c r="D2"/>
     </row>
